--- a/Doo-Doc/Nueva Version Victus/Muestreo de datos victus residencias nuevo .xlsx
+++ b/Doo-Doc/Nueva Version Victus/Muestreo de datos victus residencias nuevo .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\trabajoDOO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1EF276C-7D40-40BC-B851-C80C216971B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5277825-DFD9-405C-BF9E-1B79C273009F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -709,10 +709,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1038,13 +1034,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.77734375" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1092,7 +1088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1100,7 +1096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1136,14 +1132,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="21.77734375" customWidth="1"/>
+    <col min="2" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1153,7 +1149,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -1173,7 +1169,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1193,7 +1189,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1232,20 +1228,20 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" customWidth="1"/>
-    <col min="7" max="7" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1258,7 +1254,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>110</v>
       </c>
@@ -1290,7 +1286,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1322,7 +1318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1353,7 +1349,7 @@
         <v>Piscina-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1402,14 +1398,14 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="36.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1417,7 +1413,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
@@ -1434,7 +1430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1451,7 +1447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="23">
         <v>1</v>
       </c>
@@ -1470,7 +1466,7 @@
         <v>Agenda lunes-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>2</v>
       </c>
@@ -1489,7 +1485,7 @@
         <v>Agenda Martes -1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1508,7 +1504,7 @@
         <v>Agenda miercoles-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1527,7 +1523,7 @@
         <v>Agenda jueves-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1546,7 +1542,7 @@
         <v>Agenda viernes-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1565,7 +1561,7 @@
         <v>Agenda sabado-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>6</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>Agenda domingo-1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1603,7 +1599,7 @@
         <v>Agenda lunes-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="23">
         <v>8</v>
       </c>
@@ -1622,7 +1618,7 @@
         <v>Agenda Martes -2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1641,7 +1637,7 @@
         <v>Agenda miercoles-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="23">
         <v>10</v>
       </c>
@@ -1660,7 +1656,7 @@
         <v>Agenda jueves-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1679,7 +1675,7 @@
         <v>Agenda viernes-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>12</v>
       </c>
@@ -1698,7 +1694,7 @@
         <v>Agenda sabado-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1734,14 +1730,14 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="5" width="21.77734375" customWidth="1"/>
-    <col min="6" max="6" width="25.5546875" customWidth="1"/>
+    <col min="3" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1750,7 +1746,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -1770,7 +1766,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1790,7 +1786,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1811,7 +1807,7 @@
         <v>Turno 1-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1832,7 +1828,7 @@
         <v>Turno 2-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1853,7 +1849,7 @@
         <v>Turno 3-1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1874,7 +1870,7 @@
         <v>Turno 4-1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1895,7 +1891,7 @@
         <v>Turno 5-1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1916,7 +1912,7 @@
         <v>Turno 6-1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1937,7 +1933,7 @@
         <v>Turno 7-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1959,7 +1955,7 @@
         <v>Turno 1-7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -1981,7 +1977,7 @@
         <v>Turno 2-7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -2003,7 +1999,7 @@
         <v>Turno 3-7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -2025,7 +2021,7 @@
         <v>Turno 4-7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -2047,7 +2043,7 @@
         <v>Turno 5-7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -2069,7 +2065,7 @@
         <v>Turno 6-7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -2105,17 +2101,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026F58C5-1336-4CBF-811D-FC698DD26BEA}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="2" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2126,7 +2122,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2152,7 +2148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2178,7 +2174,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2208,7 +2204,7 @@
         <v>1-1-Jose Zuluf-74564891</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2235,7 +2231,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2249,7 +2245,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2263,7 +2259,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2277,7 +2273,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2291,7 +2287,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2321,16 +2317,16 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="7" width="21.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.88671875" customWidth="1"/>
-    <col min="9" max="10" width="21.77734375" customWidth="1"/>
-    <col min="11" max="11" width="25.5546875" customWidth="1"/>
+    <col min="3" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2344,7 +2340,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>126</v>
       </c>
@@ -2379,7 +2375,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2414,7 +2410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2451,7 +2447,7 @@
         <v>Jose Zuluf-74564891</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>Juan Aristisabal-16513516</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2506,7 +2502,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2524,7 +2520,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2542,7 +2538,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2593,19 +2589,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3124B0-BF43-4D8E-8B80-2D2432DEB873}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="21.77734375" customWidth="1"/>
-    <col min="5" max="6" width="23.88671875" customWidth="1"/>
+    <col min="3" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2615,7 +2611,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>136</v>
       </c>
@@ -2638,7 +2634,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2661,7 +2657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2686,7 +2682,7 @@
         <v>Andrés Echeverri-example@example.com</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2711,7 +2707,7 @@
         <v>Laura Martinez-Ejemplo@ejemplo.com</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2725,7 +2721,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2739,7 +2735,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2753,7 +2749,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2767,7 +2763,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2800,14 +2796,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.77734375" customWidth="1"/>
-    <col min="3" max="5" width="21.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="5" width="21.7109375" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2816,7 +2812,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>142</v>
       </c>
@@ -2836,7 +2832,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2856,7 +2852,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2878,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>

--- a/Doo-Doc/Nueva Version Victus/Muestreo de datos victus residencias nuevo .xlsx
+++ b/Doo-Doc/Nueva Version Victus/Muestreo de datos victus residencias nuevo .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\trabajoDOO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5277825-DFD9-405C-BF9E-1B79C273009F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCB7613-7D21-4C45-8EBA-910F4F3D0157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
   <si>
     <t>Nombre</t>
   </si>
@@ -533,6 +533,36 @@
   </si>
   <si>
     <t>Pendiente</t>
+  </si>
+  <si>
+    <t>tiempoUsoDia</t>
+  </si>
+  <si>
+    <t>1 hora</t>
+  </si>
+  <si>
+    <t>2 horas</t>
+  </si>
+  <si>
+    <t>fecha</t>
+  </si>
+  <si>
+    <t>disponibiilidad</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>turnoReservable</t>
+  </si>
+  <si>
+    <t>DisponibilidadPersonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">si </t>
   </si>
 </sst>
 </file>
@@ -641,7 +671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -692,6 +722,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,13 +1067,13 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1048,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1056,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1080,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1129,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1104,7 +1137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1132,14 +1165,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="36" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1149,7 +1182,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
@@ -1169,7 +1202,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1189,7 +1222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1222,26 +1255,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="5" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1250,11 +1283,12 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>110</v>
       </c>
@@ -1270,23 +1304,24 @@
       <c r="E2" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1303,22 +1338,25 @@
         <v>34</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K3" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1332,24 +1370,27 @@
       <c r="E4" s="9">
         <v>50</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="G4" s="12">
+      <c r="H4" s="12">
         <v>0.70833333333333337</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="3">
-        <v>1</v>
-      </c>
-      <c r="J4" s="10" t="str">
-        <f>_xlfn.CONCAT(B4,"-",I4)</f>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10" t="str">
+        <f>_xlfn.CONCAT(B4,"-",J4)</f>
         <v>Piscina-1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1363,20 +1404,23 @@
       <c r="E5" s="1">
         <v>20</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="22">
         <v>0.25</v>
       </c>
-      <c r="G5" s="22">
+      <c r="H5" s="22">
         <v>0.83333333333333337</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="I5" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="10" t="str">
-        <f>_xlfn.CONCAT(B5,"-",I5)</f>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="10" t="str">
+        <f>_xlfn.CONCAT(B5,"-",J5)</f>
         <v>Gimnasio-1</v>
       </c>
     </row>
@@ -1384,7 +1428,7 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{7B936B1B-E7A7-43AE-939F-38E9A3111C59}"/>
     <hyperlink ref="B1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{02A34D39-CC52-4C1F-9BB9-D46B63C023E8}"/>
-    <hyperlink ref="J1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{6585A7B7-3FD0-4667-99EF-CFCC695BC978}"/>
+    <hyperlink ref="K1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{6585A7B7-3FD0-4667-99EF-CFCC695BC978}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1392,45 +1436,49 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18BFEA03-37F1-49E6-931D-50D2159A0896}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="2" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1438,277 +1486,367 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="23">
         <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="29">
+        <v>45545</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="27">
+      <c r="F4" s="27">
         <f>ZonaComun!A4</f>
         <v>1</v>
       </c>
-      <c r="E4" s="16" t="str">
-        <f>_xlfn.CONCAT(B4,"-",D4)</f>
+      <c r="G4" s="16" t="str">
+        <f>_xlfn.CONCAT(B4,"-",F4)</f>
         <v>Agenda lunes-1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="23">
         <v>2</v>
       </c>
       <c r="B5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="29">
+        <v>45545</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="27">
+      <c r="F5" s="27">
         <f>ZonaComun!A4</f>
         <v>1</v>
       </c>
-      <c r="E5" s="16" t="str">
-        <f t="shared" ref="E5:E10" si="0">_xlfn.CONCAT(B5,"-",D5)</f>
+      <c r="G5" s="16" t="str">
+        <f t="shared" ref="G5:G10" si="0">_xlfn.CONCAT(B5,"-",F5)</f>
         <v>Agenda Martes -1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="29">
+        <v>45545</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="27">
+      <c r="F6" s="27">
         <f>ZonaComun!A4</f>
         <v>1</v>
       </c>
-      <c r="E6" s="16" t="str">
+      <c r="G6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Agenda miercoles-1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="29">
+        <v>45545</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="27">
+      <c r="F7" s="27">
         <f>ZonaComun!A4</f>
         <v>1</v>
       </c>
-      <c r="E7" s="16" t="str">
+      <c r="G7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Agenda jueves-1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="29">
+        <v>45545</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D8" s="27">
+      <c r="F8" s="27">
         <f>ZonaComun!A4</f>
         <v>1</v>
       </c>
-      <c r="E8" s="16" t="str">
+      <c r="G8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Agenda viernes-1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="29">
+        <v>45545</v>
+      </c>
+      <c r="E9" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="27">
+      <c r="F9" s="27">
         <f>ZonaComun!A4</f>
         <v>1</v>
       </c>
-      <c r="E9" s="16" t="str">
+      <c r="G9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Agenda sabado-1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="29">
+        <v>45545</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D10" s="27">
+      <c r="F10" s="27">
         <f>ZonaComun!A4</f>
         <v>1</v>
       </c>
-      <c r="E10" s="16" t="str">
+      <c r="G10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Agenda domingo-1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D11" s="29">
+        <v>45546</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="27">
+      <c r="F11" s="27">
         <f>ZonaComun!A5</f>
         <v>2</v>
       </c>
-      <c r="E11" s="16" t="str">
-        <f>_xlfn.CONCAT(B11,"-",D11)</f>
+      <c r="G11" s="16" t="str">
+        <f>_xlfn.CONCAT(B11,"-",F11)</f>
         <v>Agenda lunes-2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>8</v>
       </c>
       <c r="B12" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="29">
+        <v>45546</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="27">
+      <c r="F12" s="27">
         <f>ZonaComun!A5</f>
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="str">
-        <f t="shared" ref="E12:E17" si="1">_xlfn.CONCAT(B12,"-",D12)</f>
+      <c r="G12" s="16" t="str">
+        <f t="shared" ref="G12:G17" si="1">_xlfn.CONCAT(B12,"-",F12)</f>
         <v>Agenda Martes -2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="29">
+        <v>45546</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="D13" s="27">
+      <c r="F13" s="27">
         <f>ZonaComun!A5</f>
         <v>2</v>
       </c>
-      <c r="E13" s="16" t="str">
+      <c r="G13" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Agenda miercoles-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="29">
+        <v>45546</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="27">
+      <c r="F14" s="27">
         <f>ZonaComun!A5</f>
         <v>2</v>
       </c>
-      <c r="E14" s="16" t="str">
+      <c r="G14" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Agenda jueves-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="29">
+        <v>45546</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="27">
+      <c r="F15" s="27">
         <f>ZonaComun!A5</f>
         <v>2</v>
       </c>
-      <c r="E15" s="16" t="str">
+      <c r="G15" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Agenda viernes-2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="29">
+        <v>45546</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="D16" s="27">
+      <c r="F16" s="27">
         <f>ZonaComun!A5</f>
         <v>2</v>
       </c>
-      <c r="E16" s="16" t="str">
+      <c r="G16" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Agenda sabado-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="14" t="s">
+      <c r="C17" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="29">
+        <v>45546</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="27">
+      <c r="F17" s="27">
         <f>ZonaComun!A5</f>
         <v>2</v>
       </c>
-      <c r="E17" s="16" t="str">
+      <c r="G17" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Agenda domingo-2</v>
       </c>
@@ -1724,20 +1862,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16627FE9-87E6-48DC-A707-90EBA4949045}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="3" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -1745,8 +1883,10 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>114</v>
       </c>
@@ -1759,14 +1899,16 @@
       <c r="D2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -1780,13 +1922,19 @@
         <v>41</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="H3" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1802,12 +1950,18 @@
       <c r="E4" s="25">
         <v>1</v>
       </c>
-      <c r="F4" s="16" t="str">
-        <f>_xlfn.CONCAT(B4,"-",E4)</f>
+      <c r="F4" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f>_xlfn.CONCAT(B4,"-",G4)</f>
         <v>Turno 1-1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -1823,12 +1977,18 @@
       <c r="E5" s="25">
         <v>1</v>
       </c>
-      <c r="F5" s="16" t="str">
-        <f t="shared" ref="F5:F10" si="0">_xlfn.CONCAT(B5,"-",E5)</f>
+      <c r="F5" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="25">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f t="shared" ref="H5:H10" si="0">_xlfn.CONCAT(B5,"-",G5)</f>
         <v>Turno 2-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -1844,12 +2004,18 @@
       <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="F6" s="16" t="str">
+      <c r="F6" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Turno 3-1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1865,12 +2031,18 @@
       <c r="E7" s="25">
         <v>1</v>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Turno 4-1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1886,12 +2058,18 @@
       <c r="E8" s="25">
         <v>1</v>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Turno 5-1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1907,12 +2085,18 @@
       <c r="E9" s="25">
         <v>1</v>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="25">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Turno 6-1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1928,12 +2112,18 @@
       <c r="E10" s="25">
         <v>1</v>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="str">
         <f t="shared" si="0"/>
         <v>Turno 7-1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>8</v>
       </c>
@@ -1946,16 +2136,22 @@
       <c r="D11" s="14">
         <v>0.5</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="25">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="27">
         <f>Agenda!A11</f>
         <v>7</v>
       </c>
-      <c r="F11" s="16" t="str">
-        <f>_xlfn.CONCAT(B11,"-",E11)</f>
+      <c r="H11" s="16" t="str">
+        <f>_xlfn.CONCAT(B11,"-",G11)</f>
         <v>Turno 1-7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>9</v>
       </c>
@@ -1968,16 +2164,22 @@
       <c r="D12" s="14">
         <v>0.54166666666666696</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="25">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G12" s="27">
         <f>Agenda!A11</f>
         <v>7</v>
       </c>
-      <c r="F12" s="16" t="str">
-        <f t="shared" ref="F12:F17" si="1">_xlfn.CONCAT(B12,"-",E12)</f>
+      <c r="H12" s="16" t="str">
+        <f t="shared" ref="H12:H17" si="1">_xlfn.CONCAT(B12,"-",G12)</f>
         <v>Turno 2-7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>10</v>
       </c>
@@ -1990,16 +2192,22 @@
       <c r="D13" s="14">
         <v>0.58333333333333304</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="25">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G13" s="27">
         <f>Agenda!A11</f>
         <v>7</v>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="H13" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Turno 3-7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>11</v>
       </c>
@@ -2012,16 +2220,22 @@
       <c r="D14" s="14">
         <v>0.625</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G14" s="27">
         <f>Agenda!A11</f>
         <v>7</v>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="H14" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Turno 4-7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>12</v>
       </c>
@@ -2034,16 +2248,22 @@
       <c r="D15" s="14">
         <v>0.66666666666666696</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="25">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="G15" s="27">
         <f>Agenda!A11</f>
         <v>7</v>
       </c>
-      <c r="F15" s="16" t="str">
+      <c r="H15" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Turno 5-7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>13</v>
       </c>
@@ -2056,16 +2276,22 @@
       <c r="D16" s="14">
         <v>0.70833333333333304</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="25">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="27">
         <f>Agenda!A11</f>
         <v>7</v>
       </c>
-      <c r="F16" s="16" t="str">
+      <c r="H16" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Turno 6-7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>14</v>
       </c>
@@ -2078,11 +2304,17 @@
       <c r="D17" s="14">
         <v>0.75</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="25">
+        <v>1</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G17" s="27">
         <f>Agenda!A11</f>
         <v>7</v>
       </c>
-      <c r="F17" s="16" t="str">
+      <c r="H17" s="16" t="str">
         <f t="shared" si="1"/>
         <v>Turno 7-7</v>
       </c>
@@ -2101,17 +2333,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026F58C5-1336-4CBF-811D-FC698DD26BEA}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="2" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2122,7 +2354,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>119</v>
       </c>
@@ -2148,7 +2380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2174,7 +2406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2204,7 +2436,7 @@
         <v>1-1-Jose Zuluf-74564891</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2231,7 +2463,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2245,7 +2477,7 @@
       <c r="G6" s="17"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2259,7 +2491,7 @@
       <c r="G7" s="17"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2273,7 +2505,7 @@
       <c r="G8" s="17"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2287,7 +2519,7 @@
       <c r="G9" s="17"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2317,16 +2549,16 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" customWidth="1"/>
-    <col min="9" max="10" width="21.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="3" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" customWidth="1"/>
+    <col min="9" max="10" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2340,7 +2572,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>126</v>
       </c>
@@ -2375,7 +2607,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2410,7 +2642,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2447,7 +2679,7 @@
         <v>Jose Zuluf-74564891</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2484,7 +2716,7 @@
         <v>Juan Aristisabal-16513516</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2502,7 +2734,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2520,7 +2752,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2538,7 +2770,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2556,7 +2788,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2593,15 +2825,15 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="23.85546875" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2611,7 +2843,7 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>136</v>
       </c>
@@ -2634,7 +2866,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2657,7 +2889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2682,7 +2914,7 @@
         <v>Andrés Echeverri-example@example.com</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
@@ -2707,7 +2939,7 @@
         <v>Laura Martinez-Ejemplo@ejemplo.com</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2721,7 +2953,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2735,7 +2967,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2749,7 +2981,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2763,7 +2995,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2796,14 +3028,14 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="5" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -2812,7 +3044,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>142</v>
       </c>
@@ -2832,7 +3064,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -2852,7 +3084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -2874,7 +3106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>

--- a/Doo-Doc/Nueva Version Victus/Muestreo de datos victus residencias nuevo .xlsx
+++ b/Doo-Doc/Nueva Version Victus/Muestreo de datos victus residencias nuevo .xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2273A81-12D9-4723-9798-E1AF05EE234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E2273A81-12D9-4723-9798-E1AF05EE234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F10BE1DC-528E-445B-A96D-D2F868106DD8}"/>
   <bookViews>
-    <workbookView xWindow="855" yWindow="7590" windowWidth="35505" windowHeight="7230" firstSheet="1" activeTab="10" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,8 @@
     <sheet name="Residente" sheetId="7" r:id="rId6"/>
     <sheet name="ZonaComun" sheetId="4" r:id="rId7"/>
     <sheet name="Agenda" sheetId="3" r:id="rId8"/>
-    <sheet name="ConfiguracionAgenda" sheetId="16" r:id="rId9"/>
-    <sheet name="Turno" sheetId="5" r:id="rId10"/>
-    <sheet name="Reserva" sheetId="6" r:id="rId11"/>
+    <sheet name="Turno" sheetId="5" r:id="rId9"/>
+    <sheet name="Reserva" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="160">
   <si>
     <t>Nombre</t>
   </si>
@@ -96,12 +95,6 @@
     <t>Corresponde a la persona que puede gestionar a los residentes, y las zonas comunes</t>
   </si>
   <si>
-    <t>Publicación</t>
-  </si>
-  <si>
-    <t>Corresponde a las publicaciones que pueden hacer los administradores, es decir, en caso de eventualidad o que se quiera hacer conocer algo, los administradores podrán usar este medio.</t>
-  </si>
-  <si>
     <t>&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio</t>
   </si>
   <si>
@@ -495,39 +488,9 @@
     <t>8am</t>
   </si>
   <si>
-    <t>tipoRecurrencia</t>
-  </si>
-  <si>
-    <t>repetirCada</t>
-  </si>
-  <si>
-    <t>frecuenciaRepeticion</t>
-  </si>
-  <si>
-    <t>fechaFinRepeticion</t>
-  </si>
-  <si>
     <t>Agenda para residentes</t>
   </si>
   <si>
-    <t>semanal</t>
-  </si>
-  <si>
-    <t>mensual</t>
-  </si>
-  <si>
-    <t>anual</t>
-  </si>
-  <si>
-    <t>Lunes, Martes, Jueves y Viernes</t>
-  </si>
-  <si>
-    <t>Miercoles</t>
-  </si>
-  <si>
-    <t>dia</t>
-  </si>
-  <si>
     <t>Agenda para dias de mantenimiento</t>
   </si>
   <si>
@@ -556,9 +519,6 @@
   </si>
   <si>
     <t>12am</t>
-  </si>
-  <si>
-    <t>Viernes, Sabado y Domingo</t>
   </si>
   <si>
     <t>7 invitados</t>
@@ -769,7 +729,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,7 +757,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,7 +774,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1130,19 +1090,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3601F120-B689-4608-A7AB-FD2F4140FEAD}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1118,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1166,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1142,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1190,7 +1150,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1198,20 +1158,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1227,26 +1179,24 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16627FE9-87E6-48DC-A707-90EBA4949045}">
-  <dimension ref="A1:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026F58C5-1336-4CBF-811D-FC698DD26BEA}">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="89.5703125" customWidth="1"/>
-    <col min="7" max="7" width="95.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="85.109375" customWidth="1"/>
+    <col min="4" max="6" width="23.5546875" customWidth="1"/>
+    <col min="7" max="7" width="118" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1254,508 +1204,33 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>1</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="31">
-        <v>0.25</v>
-      </c>
-      <c r="D4" s="31">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E4" s="32" t="s">
         <v>107</v>
-      </c>
-      <c r="F4" s="33" t="str">
-        <f>Agenda!$I$4</f>
-        <v>Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="G4" s="14" t="str">
-        <f t="shared" ref="G4:G20" si="0">_xlfn.CONCAT(B4,"-",F4)</f>
-        <v>Turno 1-Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="I4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <v>2</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="31">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D5" s="31">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="33" t="str">
-        <f>Agenda!$I$4</f>
-        <v>Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="G5" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="I5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>3</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="31">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D6" s="31">
-        <v>0</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="33" t="str">
-        <f>Agenda!$I$4</f>
-        <v>Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="G6" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="I6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
-        <v>4</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D7" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" s="38" t="str">
-        <f>Agenda!$I$5</f>
-        <v>Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="G7" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
-        <v>5</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="36">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="36">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" s="38" t="str">
-        <f>Agenda!$I$5</f>
-        <v>Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="G8" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
-        <v>6</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="36">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D9" s="36">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="38" t="str">
-        <f>Agenda!$I$5</f>
-        <v>Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-      <c r="G9" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="39">
-        <v>7</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="40">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D10" s="40">
-        <v>0.625</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="42" t="str">
-        <f>Agenda!$I$6</f>
-        <v>Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="G10" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
-        <v>8</v>
-      </c>
-      <c r="B11" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="40">
-        <v>0.625</v>
-      </c>
-      <c r="D11" s="40">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E11" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="42" t="str">
-        <f>Agenda!$I$6</f>
-        <v>Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="G11" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="39">
-        <v>9</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="40">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="D12" s="40">
-        <v>0.70833333333333404</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="42" t="str">
-        <f>Agenda!$I$6</f>
-        <v>Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="G12" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
-        <v>10</v>
-      </c>
-      <c r="B13" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="40">
-        <v>0.70833333333333404</v>
-      </c>
-      <c r="D13" s="40">
-        <v>0.750000000000001</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="42" t="str">
-        <f>Agenda!$I$6</f>
-        <v>Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
-      </c>
-      <c r="G13" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 4-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
-        <v>11</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="44">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D14" s="44">
-        <v>0.375</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" s="46" t="str">
-        <f>Agenda!$I$7</f>
-        <v>Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
-      </c>
-      <c r="G14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 1-Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="43">
-        <v>12</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="44">
-        <v>0.375</v>
-      </c>
-      <c r="D15" s="44">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F15" s="46" t="str">
-        <f>Agenda!$I$7</f>
-        <v>Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
-      </c>
-      <c r="G15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 2-Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>13</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="44">
-        <v>0.41666666666666702</v>
-      </c>
-      <c r="D16" s="44">
-        <v>0.45833333333333398</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="F16" s="46" t="str">
-        <f>Agenda!$I$7</f>
-        <v>Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
-      </c>
-      <c r="G16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>Turno 3-Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="34">
-        <v>14</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
-        <v>15</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
-        <v>17</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E20" xr:uid="{C5425F56-CB4D-4EEA-B72D-6F9063B344A8}">
-      <formula1>$I$5:$I$6</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{2C00C4A2-B1B5-42FB-B628-F24E52AFF075}"/>
-    <hyperlink ref="C1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{453685FE-0ACE-4B70-8B44-4BDAA40A8AB9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026F58C5-1336-4CBF-811D-FC698DD26BEA}">
-  <dimension ref="A1:I10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="85.140625" customWidth="1"/>
-    <col min="4" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="118" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
@@ -1764,24 +1239,24 @@
         <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I3" s="29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="23" t="str">
         <f>Turno!$G$5</f>
@@ -1793,25 +1268,25 @@
       </c>
       <c r="E4" s="16" t="str">
         <f ca="1">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>15/09/2024</v>
+        <v>21/09/2024</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="14" t="str">
         <f>C4&amp;"-"&amp;D4&amp;"-"&amp;B4</f>
         <v>Turno 2-Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos-Jose Zuluf-74564891-1 invitado</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="23" t="str">
         <f>Turno!$G$9</f>
@@ -1823,22 +1298,22 @@
       </c>
       <c r="E5" s="16" t="str">
         <f t="shared" ref="E5:E6" ca="1" si="0">TEXT(TODAY(),"dd/mm/yyyy")</f>
-        <v>15/09/2024</v>
+        <v>21/09/2024</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G5" s="14" t="str">
         <f>C5&amp;"-"&amp;D5&amp;"-"&amp;B5</f>
         <v>Turno 3-Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos-Juan Aristisabal-16513516-2 invitados</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C6" s="23" t="str">
         <f>Turno!$G$13</f>
@@ -1850,17 +1325,17 @@
       </c>
       <c r="E6" s="16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>15/09/2024</v>
+        <v>21/09/2024</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="14" t="str">
         <f>C6&amp;"-"&amp;D6&amp;"-"&amp;B6</f>
         <v>Turno 4-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural-Andres Velez-8552369-7 invitados</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -1871,7 +1346,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -1882,7 +1357,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -1893,7 +1368,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -1925,17 +1400,17 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -1943,61 +1418,61 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D4" s="18">
         <v>3053456459</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F4" s="18">
         <v>123456</v>
@@ -2007,21 +1482,21 @@
         <v>Carlos-carlos@gmail.com</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1">
         <v>3584418688</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1">
         <v>654321</v>
@@ -2031,7 +1506,7 @@
         <v>Sara-sara@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -2063,16 +1538,16 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
+    <col min="2" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2081,39 +1556,39 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>1</v>
@@ -2122,51 +1597,51 @@
         <v>14</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9">
         <v>3053451564</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>_xlfn.CONCAT(A4,"-",B4)</f>
         <v>1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D5" s="9">
         <v>3057477789</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>_xlfn.CONCAT(A5,"-",B5)</f>
@@ -2194,117 +1669,117 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>_xlfn.CONCAT(B4,C4," de ",D4)</f>
         <v>Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" ref="E5:E12" si="0">_xlfn.CONCAT(B5,C5," de ",D5)</f>
         <v>Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -2318,7 +1793,7 @@
         <v>Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2330,7 +1805,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2342,7 +1817,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2354,7 +1829,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2366,7 +1841,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2378,14 +1853,14 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2411,63 +1886,63 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C4" s="1">
         <v>102</v>
@@ -2481,12 +1956,12 @@
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -2500,12 +1975,12 @@
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1">
         <v>304</v>
@@ -2519,12 +1994,12 @@
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
@@ -2538,7 +2013,7 @@
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2550,7 +2025,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2562,7 +2037,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2574,14 +2049,14 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2607,20 +2082,20 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" customWidth="1"/>
-    <col min="10" max="10" width="50.5703125" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" customWidth="1"/>
+    <col min="3" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="50.5546875" customWidth="1"/>
+    <col min="11" max="11" width="25.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2632,84 +2107,84 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="18">
         <v>74564891</v>
@@ -2721,7 +2196,7 @@
         <v>3053456459</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I4" s="18">
         <v>789654</v>
@@ -2735,18 +2210,18 @@
         <v>Jose Zuluf-74564891</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E5" s="18">
         <v>16513516</v>
@@ -2758,7 +2233,7 @@
         <v>3015124578</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I5" s="18">
         <v>523698</v>
@@ -2772,18 +2247,18 @@
         <v>Juan Aristisabal-16513516</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E6" s="18">
         <v>8552369</v>
@@ -2795,7 +2270,7 @@
         <v>3057477830</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I6" s="18">
         <v>852339</v>
@@ -2809,7 +2284,7 @@
         <v>Andres Velez-8552369</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>4</v>
       </c>
@@ -2827,7 +2302,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>5</v>
       </c>
@@ -2845,7 +2320,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>6</v>
       </c>
@@ -2863,7 +2338,7 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>7</v>
       </c>
@@ -2881,24 +2356,24 @@
         <v xml:space="preserve"> -</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2923,23 +2398,23 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="6" width="21.7109375" customWidth="1"/>
+    <col min="5" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2950,81 +2425,81 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" s="25">
         <v>50</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4" s="9" t="str">
         <f>ConjuntoResidencial!$G$4</f>
@@ -3035,25 +2510,25 @@
         <v>Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="26">
         <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="9" t="str">
         <f>ConjuntoResidencial!$G$4</f>
@@ -3064,25 +2539,25 @@
         <v>Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="26">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6" s="9" t="str">
         <f>ConjuntoResidencial!$G$5</f>
@@ -3111,19 +2586,19 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="40.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="88.140625" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.5546875" customWidth="1"/>
+    <col min="6" max="8" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="88.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3133,55 +2608,55 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="I3" s="13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -3190,29 +2665,29 @@
         <v>Gimnasio-1-Forest apartamentos</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E4" s="27">
         <v>45553</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I4" s="13" t="str">
         <f>C4&amp;" "&amp;TEXT(E4,"dd/mm/yyyy")&amp;"-"&amp;B4</f>
         <v>Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>2</v>
       </c>
@@ -3221,29 +2696,29 @@
         <v>Gimnasio-1-Forest apartamentos</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5" s="27">
         <v>45553</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I5" s="13" t="str">
         <f t="shared" ref="I5:I9" si="0">C5&amp;" "&amp;TEXT(E5,"dd/mm/yyyy")&amp;"-"&amp;B5</f>
         <v>Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -3252,29 +2727,29 @@
         <v>piscinaAdultos-2-Natural</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E6" s="27">
         <v>45554</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -3283,29 +2758,29 @@
         <v>Piscina-1-Forest apartamentos</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" s="27">
         <v>45553</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I7" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="24"/>
       <c r="C8" s="20"/>
@@ -3319,7 +2794,7 @@
         <v xml:space="preserve"> 00/01/1900-</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
       <c r="B9" s="24"/>
       <c r="C9" s="20"/>
@@ -3333,7 +2808,7 @@
         <v xml:space="preserve"> 00/01/1900-</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="24"/>
       <c r="C10" s="1"/>
@@ -3344,7 +2819,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
       <c r="B11" s="24"/>
       <c r="C11" s="1"/>
@@ -3365,26 +2840,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575DC99D-4112-4553-8B9E-4F8C741B2EEC}">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16627FE9-87E6-48DC-A707-90EBA4949045}">
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="89.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="120.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="89.5546875" customWidth="1"/>
+    <col min="7" max="7" width="95.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -3392,202 +2867,450 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="G3" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="29" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>1</v>
-      </c>
-      <c r="B4" s="24" t="str">
+      <c r="C4" s="31">
+        <v>0.25</v>
+      </c>
+      <c r="D4" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="33" t="str">
         <f>Agenda!$I$4</f>
         <v>Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="20">
-        <v>1</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="27">
-        <v>45915</v>
-      </c>
-      <c r="G4" s="13" t="str">
-        <f>TEXT(E4,"dd/mm/yyyy")&amp;"-"&amp;B4&amp;" Hasta "&amp;TEXT(F4,"dd/mm/yyyy")</f>
-        <v>Lunes, Martes, Jueves y Viernes-Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos Hasta 15/09/2025</v>
+      <c r="G4" s="14" t="str">
+        <f t="shared" ref="G4:G20" si="0">_xlfn.CONCAT(B4,"-",F4)</f>
+        <v>Turno 1-Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
       </c>
       <c r="I4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="str">
+      <c r="B5" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D5" s="31">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="33" t="str">
+        <f>Agenda!$I$4</f>
+        <v>Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
+      </c>
+      <c r="G5" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 2-Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
+      </c>
+      <c r="I5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D6" s="31">
+        <v>0</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="33" t="str">
+        <f>Agenda!$I$4</f>
+        <v>Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
+      </c>
+      <c r="G6" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 3-Agenda para residentes turno Diurno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
+      </c>
+      <c r="I6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="35">
+        <v>4</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D7" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="38" t="str">
         <f>Agenda!$I$5</f>
         <v>Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F5" s="27">
-        <v>45915</v>
-      </c>
-      <c r="G5" s="13" t="str">
-        <f>TEXT(E5,"dd/mm/yyyy")&amp;"-"&amp;B5&amp;" Hasta "&amp;TEXT(F5,"dd/mm/yyyy")</f>
-        <v>Lunes, Martes, Jueves y Viernes-Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos Hasta 15/09/2025</v>
-      </c>
-      <c r="I5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>3</v>
-      </c>
-      <c r="B6" s="24" t="str">
+      <c r="G7" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 1-Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="35">
+        <v>5</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="36">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="38" t="str">
+        <f>Agenda!$I$5</f>
+        <v>Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
+      </c>
+      <c r="G8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 2-Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="35">
+        <v>6</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D9" s="36">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F9" s="38" t="str">
+        <f>Agenda!$I$5</f>
+        <v>Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
+      </c>
+      <c r="G9" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 3-Agenda para residentes turno Nocturno 18/09/2024-Gimnasio-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="39">
+        <v>7</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="40">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D10" s="40">
+        <v>0.625</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F10" s="42" t="str">
         <f>Agenda!$I$6</f>
         <v>Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D6" s="20">
-        <v>1</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="27">
-        <v>45918</v>
-      </c>
-      <c r="G6" s="13" t="str">
-        <f>TEXT(E6,"dd/mm/yyyy")&amp;"-"&amp;B6&amp;" Hasta "&amp;TEXT(F6,"dd/mm/yyyy")</f>
-        <v>Viernes, Sabado y Domingo-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural Hasta 18/09/2025</v>
-      </c>
-      <c r="I6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="str">
+      <c r="G10" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 1-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="39">
+        <v>8</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="40">
+        <v>0.625</v>
+      </c>
+      <c r="D11" s="40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="42" t="str">
+        <f>Agenda!$I$6</f>
+        <v>Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
+      </c>
+      <c r="G11" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 2-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
+        <v>9</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="40">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="D12" s="40">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="42" t="str">
+        <f>Agenda!$I$6</f>
+        <v>Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
+      </c>
+      <c r="G12" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 3-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>10</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="40">
+        <v>0.70833333333333404</v>
+      </c>
+      <c r="D13" s="40">
+        <v>0.750000000000001</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="42" t="str">
+        <f>Agenda!$I$6</f>
+        <v>Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
+      </c>
+      <c r="G13" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 4-Agenda para residentes 19/09/2024-piscinaAdultos-2-Natural</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
+        <v>11</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="44">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="E14" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="46" t="str">
         <f>Agenda!$I$7</f>
         <v>Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="20">
-        <v>1</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" s="27">
-        <v>45918</v>
-      </c>
-      <c r="G7" s="13" t="str">
-        <f t="shared" ref="G7:G11" si="0">TEXT(E7,"dd/mm/yyyy")&amp;"-"&amp;B7&amp;" Hasta "&amp;TEXT(F7,"dd/mm/yyyy")</f>
-        <v>Miercoles-Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos Hasta 18/09/2025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="13"/>
+      <c r="G14" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 1-Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="43">
+        <v>12</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="44">
+        <v>0.375</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="46" t="str">
+        <f>Agenda!$I$7</f>
+        <v>Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
+      </c>
+      <c r="G15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 2-Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="43">
+        <v>13</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="44">
+        <v>0.41666666666666702</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0.45833333333333398</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="46" t="str">
+        <f>Agenda!$I$7</f>
+        <v>Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
+      </c>
+      <c r="G16" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>Turno 3-Agenda para dias de mantenimiento 18/09/2024-Piscina-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="34">
+        <v>14</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
+        <v>15</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="34">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="34">
+        <v>17</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C7" xr:uid="{DD099267-EE28-4B40-8B7C-03E4E09C2958}">
-      <formula1>$I$3:$I$6</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E20" xr:uid="{C5425F56-CB4D-4EEA-B72D-6F9063B344A8}">
+      <formula1>$I$5:$I$6</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{25089D3D-D8B0-47FF-88AF-EA16E6CCF50A}"/>
+    <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{2C00C4A2-B1B5-42FB-B628-F24E52AFF075}"/>
+    <hyperlink ref="C1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{453685FE-0ACE-4B70-8B44-4BDAA40A8AB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
